--- a/Sprint 2 Burndown Chart.xlsx
+++ b/Sprint 2 Burndown Chart.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\csce315\CSCE-315-Project2-local\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Project 2 Group 4</t>
   </si>
@@ -89,12 +87,6 @@
     <t>Identify All valid moves</t>
   </si>
   <si>
-    <t>randomly select random valid move  (minimax tree)</t>
-  </si>
-  <si>
-    <t>Look ahead one move in a tree</t>
-  </si>
-  <si>
     <t>implement minimax tree</t>
   </si>
   <si>
@@ -104,15 +96,6 @@
     <t>alpha-beta pruning all level</t>
   </si>
   <si>
-    <t>Make an easy mode</t>
-  </si>
-  <si>
-    <t>make a medium mode</t>
-  </si>
-  <si>
-    <t>make a hard mode</t>
-  </si>
-  <si>
     <t>board evaluation function to determine a winner or loser</t>
   </si>
   <si>
@@ -213,12 +196,24 @@
   </si>
   <si>
     <t>total hours left</t>
+  </si>
+  <si>
+    <t>intelligently select a valid move  (minimax tree)</t>
+  </si>
+  <si>
+    <t>Look ahead in a tree</t>
+  </si>
+  <si>
+    <t>Make modes with varying difficulty?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,10 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -364,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -558,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,29 +562,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="49.1328125" customWidth="1"/>
-    <col min="4" max="4" width="19.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -597,39 +593,39 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5">
         <v>1.1000000000000001</v>
       </c>
@@ -640,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>59</v>
@@ -658,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>1.2</v>
       </c>
@@ -669,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="B7">
         <v>1.3</v>
       </c>
@@ -680,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11">
       <c r="B8">
         <v>1.4</v>
       </c>
@@ -691,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11">
       <c r="B9">
         <v>1.5</v>
       </c>
@@ -702,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11">
       <c r="B10">
         <v>1.6</v>
       </c>
@@ -713,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
       <c r="B11">
         <v>1.7</v>
       </c>
@@ -724,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11">
       <c r="B12">
         <v>1.8</v>
       </c>
@@ -735,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11">
       <c r="B13">
         <v>1.9</v>
       </c>
@@ -746,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11">
       <c r="B14" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -757,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11">
       <c r="B15">
         <v>1.1100000000000001</v>
       </c>
@@ -768,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11">
       <c r="B16">
         <v>1.1200000000000001</v>
       </c>
@@ -779,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4">
       <c r="B17">
         <v>1.1299999999999999</v>
       </c>
@@ -790,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4">
       <c r="B18">
         <v>1.1399999999999999</v>
       </c>
@@ -801,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4">
       <c r="B19">
         <v>1.1499999999999999</v>
       </c>
@@ -812,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4">
       <c r="B20">
         <v>1.1599999999999999</v>
       </c>
@@ -823,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4">
       <c r="B21">
         <v>1.17</v>
       </c>
@@ -834,15 +830,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4">
       <c r="B24">
         <v>2.1</v>
       </c>
@@ -853,337 +849,320 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4">
       <c r="B25">
         <v>2.2000000000000002</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4">
       <c r="B26">
         <v>2.2999999999999998</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4">
       <c r="B27">
         <v>2.4</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4">
       <c r="B28">
         <v>2.5</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4">
       <c r="B29">
         <v>2.6</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4">
       <c r="B30">
         <v>2.7</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="3">
         <v>2.8</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="B32">
         <v>2.9</v>
       </c>
       <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35">
+        <v>3.1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36">
+        <v>3.2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37">
+        <v>3.3</v>
+      </c>
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38">
+        <v>3.4</v>
+      </c>
+      <c r="C38" t="s">
         <v>29</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B34">
-        <v>2.11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B37">
-        <v>3.1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B38">
-        <v>3.2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4">
       <c r="B39">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40">
+        <v>3.6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41">
+        <v>3.7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42">
+        <v>3.8</v>
+      </c>
+      <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B40">
-        <v>3.4</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B41">
-        <v>3.5</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46">
+        <v>4.2</v>
+      </c>
+      <c r="C46" t="s">
         <v>35</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B42">
-        <v>3.6</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47">
+        <v>4.3</v>
+      </c>
+      <c r="C47" t="s">
         <v>36</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B43">
-        <v>3.7</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48">
+        <v>4.3</v>
+      </c>
+      <c r="C48" t="s">
         <v>37</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B44">
-        <v>3.8</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C49" t="s">
         <v>38</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B47">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50">
+        <v>4.5</v>
+      </c>
+      <c r="C50" t="s">
         <v>39</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B48">
-        <v>4.2</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C51" t="s">
         <v>40</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B49">
-        <v>4.3</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52">
+        <v>4.7</v>
+      </c>
+      <c r="C52" t="s">
         <v>41</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B50">
-        <v>4.3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53">
+        <v>4.8</v>
+      </c>
+      <c r="C53" t="s">
         <v>42</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B51">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="C55" t="s">
         <v>43</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B52">
-        <v>4.5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B53">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B54">
-        <v>4.7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B55">
-        <v>4.8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>47</v>
-      </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57">
-        <f>SUM(D5:D21,D24:D34,D37:D44,D47:D55)</f>
+        <f>SUM(D5:D21,D24:D32,D35:D42,D45:D53)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58">
+    <row r="56" spans="2:4">
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>